--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_3988.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_3988.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J139"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,58 +438,121 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_NUMBER</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>INNING_NUMBER</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_DATE</t>
+          <t>BATTING_HAND</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_INNING</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>OPPONENT</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>VENUE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>DISMISSAL</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>RUNS_SCORED</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>BALLS_FACED</t>
+          <t>BOWL_STYLE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>3988</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Quinton de Kock</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J141"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_NUMBER</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>INNING_NUMBER</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_DATE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_INNING</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>OPPONENT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VENUE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DISMISSAL</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>RUNS_SCORED</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>BALLS_FACED</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3464</t>
+          <t>3464</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3466</t>
+          <t>3466</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3469</t>
+          <t>3469</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -659,7 +724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3491</t>
+          <t>3491</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3540</t>
+          <t>3540</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -763,7 +828,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3542</t>
+          <t>3542</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -815,7 +880,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3543</t>
+          <t>3543</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -867,7 +932,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3574</t>
+          <t>3574</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -919,7 +984,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3575</t>
+          <t>3575</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -971,7 +1036,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3577</t>
+          <t>3577</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1023,7 +1088,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3582</t>
+          <t>3582</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1075,7 +1140,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3584</t>
+          <t>3584</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1127,7 +1192,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3585</t>
+          <t>3585</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1179,7 +1244,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3586</t>
+          <t>3586</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1231,7 +1296,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3587</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1283,7 +1348,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3588</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1335,7 +1400,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3646</t>
+          <t>3646</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1387,7 +1452,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3647</t>
+          <t>3647</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1439,7 +1504,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3648</t>
+          <t>3648</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1491,7 +1556,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3653</t>
+          <t>3653</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1543,7 +1608,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3654</t>
+          <t>3654</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1595,7 +1660,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3656</t>
+          <t>3656</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1647,7 +1712,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3663</t>
+          <t>3663</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1699,7 +1764,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3665</t>
+          <t>3665</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1751,7 +1816,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3669</t>
+          <t>3669</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1803,7 +1868,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3671</t>
+          <t>3671</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1855,7 +1920,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3673</t>
+          <t>3673</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1907,7 +1972,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3685</t>
+          <t>3685</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1959,7 +2024,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3686</t>
+          <t>3686</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2011,7 +2076,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3687</t>
+          <t>3687</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2063,7 +2128,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3694</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2115,7 +2180,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3695</t>
+          <t>3695</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2167,7 +2232,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3697</t>
+          <t>3697</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2219,7 +2284,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3698</t>
+          <t>3698</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2271,7 +2336,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3700</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2323,7 +2388,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3742</t>
+          <t>3742</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2375,7 +2440,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3750</t>
+          <t>3750</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2427,7 +2492,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3760</t>
+          <t>3760</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2479,7 +2544,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3766</t>
+          <t>3766</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2531,7 +2596,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3771</t>
+          <t>3771</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2583,7 +2648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3776</t>
+          <t>3776</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2635,7 +2700,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3783</t>
+          <t>3783</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2687,7 +2752,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3790</t>
+          <t>3790</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2739,7 +2804,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3794</t>
+          <t>3794</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2791,7 +2856,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3813</t>
+          <t>3813</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2843,7 +2908,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3816</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2895,7 +2960,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3818</t>
+          <t>3818</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2947,7 +3012,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3841</t>
+          <t>3841</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2999,7 +3064,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3844</t>
+          <t>3844</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3051,7 +3116,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3845</t>
+          <t>3845</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3103,7 +3168,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3848</t>
+          <t>3848</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3155,7 +3220,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3851</t>
+          <t>3851</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3207,7 +3272,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3885</t>
+          <t>3885</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3259,7 +3324,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3887</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3311,7 +3376,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3889</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3363,7 +3428,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3890</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3415,7 +3480,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3891</t>
+          <t>3891</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3467,7 +3532,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3892</t>
+          <t>3892</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3519,7 +3584,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3894</t>
+          <t>3894</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3571,7 +3636,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3896</t>
+          <t>3896</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3623,7 +3688,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3900</t>
+          <t>3900</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3675,7 +3740,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3903</t>
+          <t>3903</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3727,7 +3792,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3907</t>
+          <t>3907</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3779,7 +3844,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3935</t>
+          <t>3935</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3831,7 +3896,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3940</t>
+          <t>3940</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3883,7 +3948,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3942</t>
+          <t>3942</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3935,7 +4000,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3945</t>
+          <t>3945</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3987,7 +4052,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3947</t>
+          <t>3947</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4039,7 +4104,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3950</t>
+          <t>3950</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4091,7 +4156,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3983</t>
+          <t>3983</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4143,7 +4208,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3985</t>
+          <t>3985</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4195,7 +4260,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3987</t>
+          <t>3987</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4247,7 +4312,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3989</t>
+          <t>3989</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4299,7 +4364,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3990</t>
+          <t>3990</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4351,7 +4416,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3992</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4403,7 +4468,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4455,7 +4520,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4507,7 +4572,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3999</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4559,7 +4624,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4002</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4611,7 +4676,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4663,7 +4728,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4715,7 +4780,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4030</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4767,7 +4832,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4033</t>
+          <t>4033</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4819,7 +4884,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4037</t>
+          <t>4037</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4871,7 +4936,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4042</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4923,7 +4988,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4080</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4975,7 +5040,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4083</t>
+          <t>4083</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5027,7 +5092,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4086</t>
+          <t>4086</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5079,7 +5144,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4126</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5131,7 +5196,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4127</t>
+          <t>4127</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5183,7 +5248,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4182</t>
+          <t>4182</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5235,7 +5300,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4183</t>
+          <t>4183</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5287,7 +5352,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4186</t>
+          <t>4186</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5339,7 +5404,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4187</t>
+          <t>4187</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5391,7 +5456,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4188</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5443,7 +5508,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4222</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5495,7 +5560,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4224</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5547,7 +5612,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4226</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5599,7 +5664,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4241</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5651,7 +5716,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4244</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5703,7 +5768,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4247</t>
+          <t>4247</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5755,7 +5820,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4261</t>
+          <t>4261</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5807,7 +5872,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4264</t>
+          <t>4264</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5859,7 +5924,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4269</t>
+          <t>4269</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5911,7 +5976,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4271</t>
+          <t>4271</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5963,7 +6028,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4272</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -6015,7 +6080,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4303</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6067,7 +6132,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4307</t>
+          <t>4307</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6119,7 +6184,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4310</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6171,7 +6236,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4317</t>
+          <t>4317</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6223,7 +6288,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4323</t>
+          <t>4323</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6275,7 +6340,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4328</t>
+          <t>4328</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6327,7 +6392,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4334</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6379,7 +6444,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4339</t>
+          <t>4339</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6431,7 +6496,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4351</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6483,7 +6548,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4401</t>
+          <t>4401</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6535,7 +6600,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4405</t>
+          <t>4405</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6587,7 +6652,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4408</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6639,7 +6704,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4415</t>
+          <t>4415</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6691,7 +6756,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4419</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6743,7 +6808,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4421</t>
+          <t>4421</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6795,7 +6860,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4458</t>
+          <t>4458</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6847,7 +6912,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4459</t>
+          <t>4459</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6899,7 +6964,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4478</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6951,7 +7016,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4524</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -7003,7 +7068,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4526</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7055,7 +7120,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4529</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7107,7 +7172,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4557</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7159,7 +7224,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4559</t>
+          <t>4559</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7211,7 +7276,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4619</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7263,7 +7328,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4620</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7315,7 +7380,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4622</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7367,7 +7432,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4656</t>
+          <t>4656</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7419,7 +7484,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4657</t>
+          <t>4657</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7471,7 +7536,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4658</t>
+          <t>4658</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7523,7 +7588,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4698</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7575,7 +7640,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4699</t>
+          <t>4699</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7627,7 +7692,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4727</t>
+          <t>4727</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7658,6 +7723,649 @@
       <c r="J139" t="inlineStr">
         <is>
           <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>4746</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Willowmoore Park</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>c F J Klaassen b Aryan Dutt</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>02/04/2023</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>4751</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Wanderers Stadium</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>c T L W Cooper b V J Kingma</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4458</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7.33%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4459</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.46%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.08%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>43.21%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>31.79%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7.79%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6.02%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.80%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4658</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>6.06%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>12.42%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>8.93%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4727</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4746</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>4.74%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4751</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_3988.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_3988.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_3988.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_3988.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7833,543 +7832,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4421</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4458</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>7.33%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4459</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>23.46%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4524</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>27.08%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4529</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>43.21%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>31.79%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>7.79%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6.02%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4656</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4657</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.80%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4658</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6.06%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>12.42%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4699</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>8.93%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4727</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4746</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.74%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4751</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>